--- a/data/pca/factorExposure/factorExposure_2012-04-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-17.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01652893243965709</v>
+        <v>-0.01677843294694659</v>
       </c>
       <c r="C2">
-        <v>0.03554294010066861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0292933088875915</v>
+      </c>
+      <c r="D2">
+        <v>0.002969241167150074</v>
+      </c>
+      <c r="E2">
+        <v>0.01040605959110226</v>
+      </c>
+      <c r="F2">
+        <v>-0.008912042392677779</v>
+      </c>
+      <c r="G2">
+        <v>-0.001540512651116856</v>
+      </c>
+      <c r="H2">
+        <v>-0.05349413750344952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07559537425685767</v>
+        <v>-0.08773525251754138</v>
       </c>
       <c r="C4">
-        <v>0.05503661862788269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0383101238761737</v>
+      </c>
+      <c r="D4">
+        <v>0.06816641485144212</v>
+      </c>
+      <c r="E4">
+        <v>0.01432603324852286</v>
+      </c>
+      <c r="F4">
+        <v>-0.02948538791529253</v>
+      </c>
+      <c r="G4">
+        <v>-0.009993667684097981</v>
+      </c>
+      <c r="H4">
+        <v>0.04935001881402633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1064847139600566</v>
+        <v>-0.1186854147955933</v>
       </c>
       <c r="C6">
-        <v>0.05498443646511657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03219044173296851</v>
+      </c>
+      <c r="D6">
+        <v>0.01173822626001066</v>
+      </c>
+      <c r="E6">
+        <v>-0.008998288991977597</v>
+      </c>
+      <c r="F6">
+        <v>-0.06174127187406468</v>
+      </c>
+      <c r="G6">
+        <v>-0.01974554542485629</v>
+      </c>
+      <c r="H6">
+        <v>-0.08346402834886277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05001724735927619</v>
+        <v>-0.064067499975692</v>
       </c>
       <c r="C7">
-        <v>0.02799899917870706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.0194090675908161</v>
+      </c>
+      <c r="D7">
+        <v>0.04571103298092766</v>
+      </c>
+      <c r="E7">
+        <v>0.03647025309415935</v>
+      </c>
+      <c r="F7">
+        <v>-0.03801362232112843</v>
+      </c>
+      <c r="G7">
+        <v>0.039331100830282</v>
+      </c>
+      <c r="H7">
+        <v>0.02582452052294088</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03584153953002428</v>
+        <v>-0.04004981887279322</v>
       </c>
       <c r="C8">
-        <v>0.01141709177687079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007450393707820621</v>
+      </c>
+      <c r="D8">
+        <v>0.02847812846274497</v>
+      </c>
+      <c r="E8">
+        <v>0.02853549738110895</v>
+      </c>
+      <c r="F8">
+        <v>-0.04281823518574492</v>
+      </c>
+      <c r="G8">
+        <v>-0.04430895371786666</v>
+      </c>
+      <c r="H8">
+        <v>0.01303432227493058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06843281524098255</v>
+        <v>-0.07852108474437672</v>
       </c>
       <c r="C9">
-        <v>0.04517073627277177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02885137800613921</v>
+      </c>
+      <c r="D9">
+        <v>0.06296062744055061</v>
+      </c>
+      <c r="E9">
+        <v>0.03685865875005191</v>
+      </c>
+      <c r="F9">
+        <v>-0.03308909595032833</v>
+      </c>
+      <c r="G9">
+        <v>-0.01249562933677182</v>
+      </c>
+      <c r="H9">
+        <v>0.05666710552849512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02853736735296806</v>
+        <v>-0.03601089475497148</v>
       </c>
       <c r="C10">
-        <v>0.03423289740870769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04250401043566163</v>
+      </c>
+      <c r="D10">
+        <v>-0.1726779932418411</v>
+      </c>
+      <c r="E10">
+        <v>0.05066946986635648</v>
+      </c>
+      <c r="F10">
+        <v>-0.04470042152965869</v>
+      </c>
+      <c r="G10">
+        <v>0.04084533351043993</v>
+      </c>
+      <c r="H10">
+        <v>-0.03610389786796942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07126200211047388</v>
+        <v>-0.07616059789358118</v>
       </c>
       <c r="C11">
-        <v>0.04664459540049917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02596501550547311</v>
+      </c>
+      <c r="D11">
+        <v>0.06222952408669372</v>
+      </c>
+      <c r="E11">
+        <v>-0.00624495647197073</v>
+      </c>
+      <c r="F11">
+        <v>-0.02456119573161445</v>
+      </c>
+      <c r="G11">
+        <v>-0.003533439631549012</v>
+      </c>
+      <c r="H11">
+        <v>0.09884641706316367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05735415834659781</v>
+        <v>-0.0656833296836774</v>
       </c>
       <c r="C12">
-        <v>0.05034353870441536</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03428253493664642</v>
+      </c>
+      <c r="D12">
+        <v>0.0496543362173137</v>
+      </c>
+      <c r="E12">
+        <v>0.01372422316139734</v>
+      </c>
+      <c r="F12">
+        <v>-0.01776572630881074</v>
+      </c>
+      <c r="G12">
+        <v>-0.004144976326346674</v>
+      </c>
+      <c r="H12">
+        <v>0.05671021624641481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06112814502813366</v>
+        <v>-0.06536948355036595</v>
       </c>
       <c r="C13">
-        <v>0.04148839328214046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02490736848004023</v>
+      </c>
+      <c r="D13">
+        <v>0.04287787605112577</v>
+      </c>
+      <c r="E13">
+        <v>0.01483306218581615</v>
+      </c>
+      <c r="F13">
+        <v>-0.003171631300414233</v>
+      </c>
+      <c r="G13">
+        <v>-0.001985047119799418</v>
+      </c>
+      <c r="H13">
+        <v>0.0537792336046091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03275506429121993</v>
+        <v>-0.04031347905709644</v>
       </c>
       <c r="C14">
-        <v>0.03081655458063158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02658092869976256</v>
+      </c>
+      <c r="D14">
+        <v>0.003510531595150321</v>
+      </c>
+      <c r="E14">
+        <v>0.02938640345763371</v>
+      </c>
+      <c r="F14">
+        <v>-0.01442873602541171</v>
+      </c>
+      <c r="G14">
+        <v>-0.01871693497896102</v>
+      </c>
+      <c r="H14">
+        <v>0.05362280424122635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03918050430566804</v>
+        <v>-0.03957475468689523</v>
       </c>
       <c r="C15">
-        <v>0.01148412299240932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003330120377018327</v>
+      </c>
+      <c r="D15">
+        <v>0.004800490576681518</v>
+      </c>
+      <c r="E15">
+        <v>0.04364899673090497</v>
+      </c>
+      <c r="F15">
+        <v>0.004106867263969227</v>
+      </c>
+      <c r="G15">
+        <v>-0.02711605069490514</v>
+      </c>
+      <c r="H15">
+        <v>0.04050978692803288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06078225436802082</v>
+        <v>-0.06972991609743316</v>
       </c>
       <c r="C16">
-        <v>0.04235030932397837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02676119225202264</v>
+      </c>
+      <c r="D16">
+        <v>0.06272384802702688</v>
+      </c>
+      <c r="E16">
+        <v>0.007128719913860177</v>
+      </c>
+      <c r="F16">
+        <v>-0.02266772481935913</v>
+      </c>
+      <c r="G16">
+        <v>0.0002435067824206752</v>
+      </c>
+      <c r="H16">
+        <v>0.06130342030278422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06456949836226261</v>
+        <v>-0.0631483380945899</v>
       </c>
       <c r="C20">
-        <v>0.03261402821803817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01332709484293632</v>
+      </c>
+      <c r="D20">
+        <v>0.04010605507052659</v>
+      </c>
+      <c r="E20">
+        <v>0.03130945532003261</v>
+      </c>
+      <c r="F20">
+        <v>-0.01774556399929817</v>
+      </c>
+      <c r="G20">
+        <v>-0.01441497372982125</v>
+      </c>
+      <c r="H20">
+        <v>0.05353498186860775</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02415325400239112</v>
+        <v>-0.02451323345859923</v>
       </c>
       <c r="C21">
-        <v>-0.00428175832225264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01175771453331734</v>
+      </c>
+      <c r="D21">
+        <v>0.03285474342560265</v>
+      </c>
+      <c r="E21">
+        <v>0.03892015752063924</v>
+      </c>
+      <c r="F21">
+        <v>0.00901602085088858</v>
+      </c>
+      <c r="G21">
+        <v>-0.009643015765549375</v>
+      </c>
+      <c r="H21">
+        <v>-0.04263752719988283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0721827106527038</v>
+        <v>-0.06800285140247754</v>
       </c>
       <c r="C22">
-        <v>0.06098946592144412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03941626608958219</v>
+      </c>
+      <c r="D22">
+        <v>0.07806574956241497</v>
+      </c>
+      <c r="E22">
+        <v>0.5759679338964725</v>
+      </c>
+      <c r="F22">
+        <v>0.21094427138313</v>
+      </c>
+      <c r="G22">
+        <v>0.05733507822559264</v>
+      </c>
+      <c r="H22">
+        <v>-0.1868810034990211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07315750443300002</v>
+        <v>-0.06860319591568161</v>
       </c>
       <c r="C23">
-        <v>0.05992987710303539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03812476805635138</v>
+      </c>
+      <c r="D23">
+        <v>0.07903970788152233</v>
+      </c>
+      <c r="E23">
+        <v>0.5754643762027482</v>
+      </c>
+      <c r="F23">
+        <v>0.2100413916951167</v>
+      </c>
+      <c r="G23">
+        <v>0.05545416846016002</v>
+      </c>
+      <c r="H23">
+        <v>-0.1824575854953887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06971399483338686</v>
+        <v>-0.07919590019699538</v>
       </c>
       <c r="C24">
-        <v>0.05018669801562153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03223502748771592</v>
+      </c>
+      <c r="D24">
+        <v>0.05962535767474372</v>
+      </c>
+      <c r="E24">
+        <v>0.0161649644788012</v>
+      </c>
+      <c r="F24">
+        <v>-0.03144410501747434</v>
+      </c>
+      <c r="G24">
+        <v>-0.01096886688602555</v>
+      </c>
+      <c r="H24">
+        <v>0.06733985656182033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07063171379257131</v>
+        <v>-0.07712841813668445</v>
       </c>
       <c r="C25">
-        <v>0.05621863727260847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03672651817660144</v>
+      </c>
+      <c r="D25">
+        <v>0.05345230954291667</v>
+      </c>
+      <c r="E25">
+        <v>0.01786497249869957</v>
+      </c>
+      <c r="F25">
+        <v>-0.02574215458405203</v>
+      </c>
+      <c r="G25">
+        <v>-0.02302762506429695</v>
+      </c>
+      <c r="H25">
+        <v>0.07103422168670885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04590680083945948</v>
+        <v>-0.04744891388398723</v>
       </c>
       <c r="C26">
-        <v>0.01048292240751923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001273270578679478</v>
+      </c>
+      <c r="D26">
+        <v>0.02059478861830778</v>
+      </c>
+      <c r="E26">
+        <v>0.05013793663656204</v>
+      </c>
+      <c r="F26">
+        <v>-0.01745554947061726</v>
+      </c>
+      <c r="G26">
+        <v>-0.0003044264905076915</v>
+      </c>
+      <c r="H26">
+        <v>0.06239998446900773</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0565675821420796</v>
+        <v>-0.06736426213365564</v>
       </c>
       <c r="C28">
-        <v>0.07445981364875931</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08355624913320052</v>
+      </c>
+      <c r="D28">
+        <v>-0.3098238513996842</v>
+      </c>
+      <c r="E28">
+        <v>0.02868396780738166</v>
+      </c>
+      <c r="F28">
+        <v>-0.0549475913211073</v>
+      </c>
+      <c r="G28">
+        <v>-0.022648377198508</v>
+      </c>
+      <c r="H28">
+        <v>-0.03543938643143273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0412042987510635</v>
+        <v>-0.04789206165546617</v>
       </c>
       <c r="C29">
-        <v>0.03178189466124749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0246717526883985</v>
+      </c>
+      <c r="D29">
+        <v>0.004323864651509828</v>
+      </c>
+      <c r="E29">
+        <v>0.05373049876479144</v>
+      </c>
+      <c r="F29">
+        <v>-0.0004798777730192023</v>
+      </c>
+      <c r="G29">
+        <v>-0.002060730371541062</v>
+      </c>
+      <c r="H29">
+        <v>0.08017317483611984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1250479060684949</v>
+        <v>-0.1327637174044703</v>
       </c>
       <c r="C30">
-        <v>0.09439428941726385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06340331985283627</v>
+      </c>
+      <c r="D30">
+        <v>0.07377894803483473</v>
+      </c>
+      <c r="E30">
+        <v>0.08283803539553784</v>
+      </c>
+      <c r="F30">
+        <v>0.01203087822226705</v>
+      </c>
+      <c r="G30">
+        <v>-0.06358797197740518</v>
+      </c>
+      <c r="H30">
+        <v>-0.02430300563706115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04237023492147703</v>
+        <v>-0.04829046234378722</v>
       </c>
       <c r="C31">
-        <v>0.01963803424091229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01106940827255553</v>
+      </c>
+      <c r="D31">
+        <v>0.02544145091848601</v>
+      </c>
+      <c r="E31">
+        <v>0.03157560120042872</v>
+      </c>
+      <c r="F31">
+        <v>-0.01088189599924762</v>
+      </c>
+      <c r="G31">
+        <v>0.01556554038951019</v>
+      </c>
+      <c r="H31">
+        <v>0.0722152277957562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.037760972507333</v>
+        <v>-0.03810773945791709</v>
       </c>
       <c r="C32">
-        <v>0.02215044899513924</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01543060467607864</v>
+      </c>
+      <c r="D32">
+        <v>0.009037120885653121</v>
+      </c>
+      <c r="E32">
+        <v>0.07236976872345598</v>
+      </c>
+      <c r="F32">
+        <v>0.01101580148973897</v>
+      </c>
+      <c r="G32">
+        <v>-0.04002018955002112</v>
+      </c>
+      <c r="H32">
+        <v>0.06020658730284668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08073914386820677</v>
+        <v>-0.09390442988426925</v>
       </c>
       <c r="C33">
-        <v>0.04355533450792247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02568195826951204</v>
+      </c>
+      <c r="D33">
+        <v>0.0519043796920285</v>
+      </c>
+      <c r="E33">
+        <v>0.01467655672352837</v>
+      </c>
+      <c r="F33">
+        <v>-0.0008203390617085354</v>
+      </c>
+      <c r="G33">
+        <v>0.0062059236816085</v>
+      </c>
+      <c r="H33">
+        <v>0.07464180491403684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05558934376990188</v>
+        <v>-0.06106048075201437</v>
       </c>
       <c r="C34">
-        <v>0.02805636733327985</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01259628715251488</v>
+      </c>
+      <c r="D34">
+        <v>0.05397954987078788</v>
+      </c>
+      <c r="E34">
+        <v>0.01006847845712399</v>
+      </c>
+      <c r="F34">
+        <v>-0.01414573851507849</v>
+      </c>
+      <c r="G34">
+        <v>-0.009442304848647012</v>
+      </c>
+      <c r="H34">
+        <v>0.05781187774944035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03754531097589136</v>
+        <v>-0.04039640326762856</v>
       </c>
       <c r="C35">
-        <v>0.009229950191951723</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.001973740810934121</v>
+      </c>
+      <c r="D35">
+        <v>0.005475256641486699</v>
+      </c>
+      <c r="E35">
+        <v>0.02369485274069822</v>
+      </c>
+      <c r="F35">
+        <v>0.01190217250542907</v>
+      </c>
+      <c r="G35">
+        <v>0.00742472172603361</v>
+      </c>
+      <c r="H35">
+        <v>0.03257928889610866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02038656619062191</v>
+        <v>-0.02669242933342176</v>
       </c>
       <c r="C36">
-        <v>0.01705798661936932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01318875297669985</v>
+      </c>
+      <c r="D36">
+        <v>0.01354343664342875</v>
+      </c>
+      <c r="E36">
+        <v>0.04586043017112775</v>
+      </c>
+      <c r="F36">
+        <v>-0.01372558560006716</v>
+      </c>
+      <c r="G36">
+        <v>0.005243916637685218</v>
+      </c>
+      <c r="H36">
+        <v>0.05069335025109551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04051527384922672</v>
+        <v>-0.04366799951862774</v>
       </c>
       <c r="C38">
-        <v>0.004207536657185546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002651801893780922</v>
+      </c>
+      <c r="D38">
+        <v>0.01618013236078305</v>
+      </c>
+      <c r="E38">
+        <v>0.05763444996712952</v>
+      </c>
+      <c r="F38">
+        <v>0.01752073285365994</v>
+      </c>
+      <c r="G38">
+        <v>-0.01259823888617083</v>
+      </c>
+      <c r="H38">
+        <v>0.01982685028404839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09406148618113358</v>
+        <v>-0.1046724492358985</v>
       </c>
       <c r="C39">
-        <v>0.07407227760724139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04968477364776589</v>
+      </c>
+      <c r="D39">
+        <v>0.0640235203728977</v>
+      </c>
+      <c r="E39">
+        <v>-0.003189031628467582</v>
+      </c>
+      <c r="F39">
+        <v>-0.00950630537026133</v>
+      </c>
+      <c r="G39">
+        <v>-0.04079104758704284</v>
+      </c>
+      <c r="H39">
+        <v>0.0702989190657963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07295911174738612</v>
+        <v>-0.07130174450761614</v>
       </c>
       <c r="C40">
-        <v>0.04078125552048016</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01971579163660261</v>
+      </c>
+      <c r="D40">
+        <v>0.006526063350731194</v>
+      </c>
+      <c r="E40">
+        <v>0.0248106661502525</v>
+      </c>
+      <c r="F40">
+        <v>0.05412289442173047</v>
+      </c>
+      <c r="G40">
+        <v>-0.04247992170428214</v>
+      </c>
+      <c r="H40">
+        <v>-0.08103380032329625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04025559650729802</v>
+        <v>-0.04349963946704175</v>
       </c>
       <c r="C41">
-        <v>0.006411078766884518</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.00150474375532872</v>
+      </c>
+      <c r="D41">
+        <v>0.03486090408465204</v>
+      </c>
+      <c r="E41">
+        <v>0.006779778856283154</v>
+      </c>
+      <c r="F41">
+        <v>0.01207995486874707</v>
+      </c>
+      <c r="G41">
+        <v>-0.01587501943118049</v>
+      </c>
+      <c r="H41">
+        <v>0.03620052246639778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04660093114467884</v>
+        <v>-0.05743130964753366</v>
       </c>
       <c r="C43">
-        <v>0.02567405202828703</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01704038367811151</v>
+      </c>
+      <c r="D43">
+        <v>0.02702950452429627</v>
+      </c>
+      <c r="E43">
+        <v>0.01961449208360093</v>
+      </c>
+      <c r="F43">
+        <v>-0.01023971770137849</v>
+      </c>
+      <c r="G43">
+        <v>0.007056797369467692</v>
+      </c>
+      <c r="H43">
+        <v>0.05232745305344207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09471810111425204</v>
+        <v>-0.09352045931396812</v>
       </c>
       <c r="C44">
-        <v>0.09553397813451434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06432019794915589</v>
+      </c>
+      <c r="D44">
+        <v>0.06595853024772</v>
+      </c>
+      <c r="E44">
+        <v>0.09556961739332497</v>
+      </c>
+      <c r="F44">
+        <v>-0.03964319591495962</v>
+      </c>
+      <c r="G44">
+        <v>-0.02739556848913274</v>
+      </c>
+      <c r="H44">
+        <v>0.01538715044427128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02474728165471349</v>
+        <v>-0.03175826562585944</v>
       </c>
       <c r="C46">
-        <v>0.01303963430509056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009052784058084233</v>
+      </c>
+      <c r="D46">
+        <v>0.032794149566204</v>
+      </c>
+      <c r="E46">
+        <v>0.02793940997579029</v>
+      </c>
+      <c r="F46">
+        <v>-0.01481613657359803</v>
+      </c>
+      <c r="G46">
+        <v>-0.008174855460724814</v>
+      </c>
+      <c r="H46">
+        <v>0.03366795579121876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02748388945842504</v>
+        <v>-0.0359897032673249</v>
       </c>
       <c r="C47">
-        <v>0.02492384273164478</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02025397234145637</v>
+      </c>
+      <c r="D47">
+        <v>0.01726462289188751</v>
+      </c>
+      <c r="E47">
+        <v>0.05588751311515776</v>
+      </c>
+      <c r="F47">
+        <v>-0.009463546956650821</v>
+      </c>
+      <c r="G47">
+        <v>0.03992085484589427</v>
+      </c>
+      <c r="H47">
+        <v>0.02284788043293958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03110734995640711</v>
+        <v>-0.03610373930929101</v>
       </c>
       <c r="C48">
-        <v>0.01570211309385759</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008779001326156759</v>
+      </c>
+      <c r="D48">
+        <v>0.01982964680802738</v>
+      </c>
+      <c r="E48">
+        <v>0.04392712871079088</v>
+      </c>
+      <c r="F48">
+        <v>-0.0004383014267932804</v>
+      </c>
+      <c r="G48">
+        <v>-0.01482832361682059</v>
+      </c>
+      <c r="H48">
+        <v>0.04926336960504768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1625734738330385</v>
+        <v>-0.1915684903112799</v>
       </c>
       <c r="C49">
-        <v>0.06424797696207345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03499899916484228</v>
+      </c>
+      <c r="D49">
+        <v>0.02728813661410008</v>
+      </c>
+      <c r="E49">
+        <v>-0.1450397076136891</v>
+      </c>
+      <c r="F49">
+        <v>-0.07787634355216418</v>
+      </c>
+      <c r="G49">
+        <v>0.07600402421037296</v>
+      </c>
+      <c r="H49">
+        <v>-0.2247017345814824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03716903867804369</v>
+        <v>-0.04438139166656036</v>
       </c>
       <c r="C50">
-        <v>0.02277967835642431</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01567866821792318</v>
+      </c>
+      <c r="D50">
+        <v>0.03292119326709345</v>
+      </c>
+      <c r="E50">
+        <v>0.05556027176446353</v>
+      </c>
+      <c r="F50">
+        <v>-0.008541792640721002</v>
+      </c>
+      <c r="G50">
+        <v>0.01267515940900848</v>
+      </c>
+      <c r="H50">
+        <v>0.06579577346994726</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02612702048898393</v>
+        <v>-0.02938266033602057</v>
       </c>
       <c r="C51">
-        <v>0.01078658367662039</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.006153840309456671</v>
+      </c>
+      <c r="D51">
+        <v>0.02178198453355719</v>
+      </c>
+      <c r="E51">
+        <v>0.0143896511478768</v>
+      </c>
+      <c r="F51">
+        <v>-0.01235543585259431</v>
+      </c>
+      <c r="G51">
+        <v>-0.001853345868596167</v>
+      </c>
+      <c r="H51">
+        <v>-0.00683308723297452</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1514407402947572</v>
+        <v>-0.1626191233951955</v>
       </c>
       <c r="C53">
-        <v>0.08291659328608018</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05272566526628155</v>
+      </c>
+      <c r="D53">
+        <v>0.02119470953224143</v>
+      </c>
+      <c r="E53">
+        <v>-0.02454379475120786</v>
+      </c>
+      <c r="F53">
+        <v>-0.01262707587268247</v>
+      </c>
+      <c r="G53">
+        <v>-0.006942665134317895</v>
+      </c>
+      <c r="H53">
+        <v>0.1495288377407511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.0557783947859481</v>
+        <v>-0.05747466621185295</v>
       </c>
       <c r="C54">
-        <v>0.02455355773486757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01178649197856864</v>
+      </c>
+      <c r="D54">
+        <v>0.01839346155016949</v>
+      </c>
+      <c r="E54">
+        <v>0.05125978165286698</v>
+      </c>
+      <c r="F54">
+        <v>-0.005351988406635463</v>
+      </c>
+      <c r="G54">
+        <v>-0.01823833226448114</v>
+      </c>
+      <c r="H54">
+        <v>0.0572781541914678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09921318669850596</v>
+        <v>-0.103592787661443</v>
       </c>
       <c r="C55">
-        <v>0.05745230814141501</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03590975597612779</v>
+      </c>
+      <c r="D55">
+        <v>0.02570979583187423</v>
+      </c>
+      <c r="E55">
+        <v>0.01840656418580774</v>
+      </c>
+      <c r="F55">
+        <v>-0.01218409825293198</v>
+      </c>
+      <c r="G55">
+        <v>-0.01604422199695833</v>
+      </c>
+      <c r="H55">
+        <v>0.1377379335786204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1469201810393305</v>
+        <v>-0.1603100274248016</v>
       </c>
       <c r="C56">
-        <v>0.09408940607938483</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06374001660674242</v>
+      </c>
+      <c r="D56">
+        <v>0.02083926217782231</v>
+      </c>
+      <c r="E56">
+        <v>-0.02722191839871978</v>
+      </c>
+      <c r="F56">
+        <v>-0.02916289427661745</v>
+      </c>
+      <c r="G56">
+        <v>-0.001963954663953714</v>
+      </c>
+      <c r="H56">
+        <v>0.1560098163919334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.120445018395818</v>
+        <v>-0.09767420250419583</v>
       </c>
       <c r="C58">
-        <v>0.005064372157385244</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03529639419063699</v>
+      </c>
+      <c r="D58">
+        <v>0.0429711781969191</v>
+      </c>
+      <c r="E58">
+        <v>0.1642886186885297</v>
+      </c>
+      <c r="F58">
+        <v>0.002303897222296764</v>
+      </c>
+      <c r="G58">
+        <v>0.06755982222452579</v>
+      </c>
+      <c r="H58">
+        <v>-0.1744566822866365</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1162811254335921</v>
+        <v>-0.1396488656218483</v>
       </c>
       <c r="C59">
-        <v>0.08031677941285227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08696975095515913</v>
+      </c>
+      <c r="D59">
+        <v>-0.3601160585329047</v>
+      </c>
+      <c r="E59">
+        <v>0.02946573036006141</v>
+      </c>
+      <c r="F59">
+        <v>-0.01537902649057429</v>
+      </c>
+      <c r="G59">
+        <v>0.04821605825154569</v>
+      </c>
+      <c r="H59">
+        <v>-0.002056068350480802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.20063833727984</v>
+        <v>-0.2303355681933395</v>
       </c>
       <c r="C60">
-        <v>0.1042446381574881</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06664500048787082</v>
+      </c>
+      <c r="D60">
+        <v>0.03905187564108729</v>
+      </c>
+      <c r="E60">
+        <v>-0.09140697145767553</v>
+      </c>
+      <c r="F60">
+        <v>-0.07333245056027925</v>
+      </c>
+      <c r="G60">
+        <v>-0.008472795416435789</v>
+      </c>
+      <c r="H60">
+        <v>-0.1739682691314419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08010296940294374</v>
+        <v>-0.08804647677465277</v>
       </c>
       <c r="C61">
-        <v>0.05083420362847196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03375927496597633</v>
+      </c>
+      <c r="D61">
+        <v>0.04486516344837599</v>
+      </c>
+      <c r="E61">
+        <v>-0.0007197439298807227</v>
+      </c>
+      <c r="F61">
+        <v>-0.004235224244727529</v>
+      </c>
+      <c r="G61">
+        <v>-0.006651620723684851</v>
+      </c>
+      <c r="H61">
+        <v>0.07353744127920293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.128786251057308</v>
+        <v>-0.1401786880560008</v>
       </c>
       <c r="C62">
-        <v>0.07044248973951739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04329293212099271</v>
+      </c>
+      <c r="D62">
+        <v>0.0274698257912743</v>
+      </c>
+      <c r="E62">
+        <v>-0.05977756273180942</v>
+      </c>
+      <c r="F62">
+        <v>-0.01315992983637552</v>
+      </c>
+      <c r="G62">
+        <v>-0.03972207307258762</v>
+      </c>
+      <c r="H62">
+        <v>0.1549660383683377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05317231393762528</v>
+        <v>-0.05119008766361231</v>
       </c>
       <c r="C63">
-        <v>0.02629375925511038</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01294350413166603</v>
+      </c>
+      <c r="D63">
+        <v>0.02011143609766227</v>
+      </c>
+      <c r="E63">
+        <v>0.05335797827507732</v>
+      </c>
+      <c r="F63">
+        <v>0.008699759360168561</v>
+      </c>
+      <c r="G63">
+        <v>-0.03698099918880173</v>
+      </c>
+      <c r="H63">
+        <v>0.06343927461995674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1090199502665621</v>
+        <v>-0.1104468120161899</v>
       </c>
       <c r="C64">
-        <v>0.02878723600903119</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004670574360773284</v>
+      </c>
+      <c r="D64">
+        <v>0.04048532762981975</v>
+      </c>
+      <c r="E64">
+        <v>0.04348092342882537</v>
+      </c>
+      <c r="F64">
+        <v>-0.04310661643744903</v>
+      </c>
+      <c r="G64">
+        <v>-0.05048183081955915</v>
+      </c>
+      <c r="H64">
+        <v>0.06080381860144383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1201604066612174</v>
+        <v>-0.1268801812068313</v>
       </c>
       <c r="C65">
-        <v>0.06073502824545161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03708279245312559</v>
+      </c>
+      <c r="D65">
+        <v>0.003710980729403389</v>
+      </c>
+      <c r="E65">
+        <v>0.007946474558635695</v>
+      </c>
+      <c r="F65">
+        <v>-0.0658161802497311</v>
+      </c>
+      <c r="G65">
+        <v>-0.05097262449884572</v>
+      </c>
+      <c r="H65">
+        <v>-0.09945811106638176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1447901160359731</v>
+        <v>-0.1558976017605373</v>
       </c>
       <c r="C66">
-        <v>0.07837861284955369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04449398039652226</v>
+      </c>
+      <c r="D66">
+        <v>0.100657625589896</v>
+      </c>
+      <c r="E66">
+        <v>-0.03068091460944632</v>
+      </c>
+      <c r="F66">
+        <v>-0.01518682422584359</v>
+      </c>
+      <c r="G66">
+        <v>-0.05365065082151487</v>
+      </c>
+      <c r="H66">
+        <v>0.1515122686010986</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07358373060701974</v>
+        <v>-0.08279197215795218</v>
       </c>
       <c r="C67">
-        <v>0.01642395455678431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004145377800663547</v>
+      </c>
+      <c r="D67">
+        <v>0.02943935005134999</v>
+      </c>
+      <c r="E67">
+        <v>0.02738690572999037</v>
+      </c>
+      <c r="F67">
+        <v>-0.009033558382545775</v>
+      </c>
+      <c r="G67">
+        <v>0.008489115881559633</v>
+      </c>
+      <c r="H67">
+        <v>0.02379378661712653</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05908138906071617</v>
+        <v>-0.06095887913896164</v>
       </c>
       <c r="C68">
-        <v>0.0508846178193148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05687155383856575</v>
+      </c>
+      <c r="D68">
+        <v>-0.2673968809068036</v>
+      </c>
+      <c r="E68">
+        <v>0.04078814707134962</v>
+      </c>
+      <c r="F68">
+        <v>-0.01654864463668253</v>
+      </c>
+      <c r="G68">
+        <v>0.01608631976482315</v>
+      </c>
+      <c r="H68">
+        <v>0.00928893373814446</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05227488732981176</v>
+        <v>-0.05247724658898861</v>
       </c>
       <c r="C69">
-        <v>0.0199201792619845</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005331138875922037</v>
+      </c>
+      <c r="D69">
+        <v>0.01804299656658057</v>
+      </c>
+      <c r="E69">
+        <v>0.02738829604689051</v>
+      </c>
+      <c r="F69">
+        <v>0.006707541322191216</v>
+      </c>
+      <c r="G69">
+        <v>0.01152122547158115</v>
+      </c>
+      <c r="H69">
+        <v>0.05026846906429738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005027023150059494</v>
+        <v>-0.02657254048114402</v>
       </c>
       <c r="C70">
-        <v>-0.00455352745448293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003581989716926802</v>
+      </c>
+      <c r="D70">
+        <v>0.001175481806582685</v>
+      </c>
+      <c r="E70">
+        <v>-0.02676391739434032</v>
+      </c>
+      <c r="F70">
+        <v>-0.0305071383192661</v>
+      </c>
+      <c r="G70">
+        <v>0.02421664599555395</v>
+      </c>
+      <c r="H70">
+        <v>-0.04939505793782862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06063020551594998</v>
+        <v>-0.06411791995427239</v>
       </c>
       <c r="C71">
-        <v>0.04990831594269358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05870046632253899</v>
+      </c>
+      <c r="D71">
+        <v>-0.2948168664533337</v>
+      </c>
+      <c r="E71">
+        <v>0.03776931446200191</v>
+      </c>
+      <c r="F71">
+        <v>-0.04867911534422566</v>
+      </c>
+      <c r="G71">
+        <v>0.00226840339693043</v>
+      </c>
+      <c r="H71">
+        <v>0.0202711085553454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.139557896566603</v>
+        <v>-0.1505313666494214</v>
       </c>
       <c r="C72">
-        <v>0.06584364559094581</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03726995436907503</v>
+      </c>
+      <c r="D72">
+        <v>-0.01166867516879678</v>
+      </c>
+      <c r="E72">
+        <v>-0.1159976910793989</v>
+      </c>
+      <c r="F72">
+        <v>0.1536420054327973</v>
+      </c>
+      <c r="G72">
+        <v>-0.1179740656823705</v>
+      </c>
+      <c r="H72">
+        <v>0.01051824120318264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2642902499635135</v>
+        <v>-0.2842190031164851</v>
       </c>
       <c r="C73">
-        <v>0.1145507525986287</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05021119063858857</v>
+      </c>
+      <c r="D73">
+        <v>0.09917310961905576</v>
+      </c>
+      <c r="E73">
+        <v>-0.2265834070763269</v>
+      </c>
+      <c r="F73">
+        <v>-0.1254824587928455</v>
+      </c>
+      <c r="G73">
+        <v>0.2243958972508113</v>
+      </c>
+      <c r="H73">
+        <v>-0.5073918853107615</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07967461171148275</v>
+        <v>-0.0920932343826896</v>
       </c>
       <c r="C74">
-        <v>0.07944393659874324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05945099806249848</v>
+      </c>
+      <c r="D74">
+        <v>0.03090782491782968</v>
+      </c>
+      <c r="E74">
+        <v>-0.004737792517841677</v>
+      </c>
+      <c r="F74">
+        <v>0.0136186440421297</v>
+      </c>
+      <c r="G74">
+        <v>0.02768603078458532</v>
+      </c>
+      <c r="H74">
+        <v>0.1189675196979842</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09495600246673236</v>
+        <v>-0.1010889043176369</v>
       </c>
       <c r="C75">
-        <v>0.05405572711365614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02722015150143002</v>
+      </c>
+      <c r="D75">
+        <v>0.01391032376025084</v>
+      </c>
+      <c r="E75">
+        <v>0.01047508714569105</v>
+      </c>
+      <c r="F75">
+        <v>-0.03408797549624641</v>
+      </c>
+      <c r="G75">
+        <v>0.008510241784607167</v>
+      </c>
+      <c r="H75">
+        <v>0.1156593468525644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1282964421122603</v>
+        <v>-0.1391890154077557</v>
       </c>
       <c r="C76">
-        <v>0.08570457793440264</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05632354176537111</v>
+      </c>
+      <c r="D76">
+        <v>0.05266617015011134</v>
+      </c>
+      <c r="E76">
+        <v>0.02730982099699087</v>
+      </c>
+      <c r="F76">
+        <v>-0.04279398017379682</v>
+      </c>
+      <c r="G76">
+        <v>-0.008469184808402686</v>
+      </c>
+      <c r="H76">
+        <v>0.1473438510549822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1192429866063328</v>
+        <v>-0.1131734486419246</v>
       </c>
       <c r="C77">
-        <v>0.02532065181900721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.003837627268258057</v>
+      </c>
+      <c r="D77">
+        <v>0.01504773282367276</v>
+      </c>
+      <c r="E77">
+        <v>0.006239715162407069</v>
+      </c>
+      <c r="F77">
+        <v>-0.1648619451989331</v>
+      </c>
+      <c r="G77">
+        <v>-0.8687161973435449</v>
+      </c>
+      <c r="H77">
+        <v>-0.247794974954749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.09479453275483345</v>
+        <v>-0.1318375024951809</v>
       </c>
       <c r="C78">
-        <v>0.04101074227361771</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.0325031285551147</v>
+      </c>
+      <c r="D78">
+        <v>0.09398784834281729</v>
+      </c>
+      <c r="E78">
+        <v>0.06086158911398601</v>
+      </c>
+      <c r="F78">
+        <v>-0.02325909548580591</v>
+      </c>
+      <c r="G78">
+        <v>-0.04484943204833398</v>
+      </c>
+      <c r="H78">
+        <v>-0.06215439981152499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1468762285151902</v>
+        <v>-0.1527903375234587</v>
       </c>
       <c r="C79">
-        <v>0.08379137743948328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04649505043880169</v>
+      </c>
+      <c r="D79">
+        <v>0.0290942770790203</v>
+      </c>
+      <c r="E79">
+        <v>-0.01320770457760271</v>
+      </c>
+      <c r="F79">
+        <v>-0.01117923995317915</v>
+      </c>
+      <c r="G79">
+        <v>0.01234516709972761</v>
+      </c>
+      <c r="H79">
+        <v>0.1673379440658005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04224459674807621</v>
+        <v>-0.04126586782625771</v>
       </c>
       <c r="C80">
-        <v>0.01521822517621797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005504049963894904</v>
+      </c>
+      <c r="D80">
+        <v>0.0219003910803173</v>
+      </c>
+      <c r="E80">
+        <v>-0.01066601149734519</v>
+      </c>
+      <c r="F80">
+        <v>0.01507085545123675</v>
+      </c>
+      <c r="G80">
+        <v>0.03364916001750763</v>
+      </c>
+      <c r="H80">
+        <v>0.04050036038229551</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1176494257980106</v>
+        <v>-0.1219619093619807</v>
       </c>
       <c r="C81">
-        <v>0.06694468775581908</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03675873004060457</v>
+      </c>
+      <c r="D81">
+        <v>0.02665494860743654</v>
+      </c>
+      <c r="E81">
+        <v>0.03159254907295847</v>
+      </c>
+      <c r="F81">
+        <v>-0.01384148218721023</v>
+      </c>
+      <c r="G81">
+        <v>0.03102786395136652</v>
+      </c>
+      <c r="H81">
+        <v>0.1663875761293618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1269286139269147</v>
+        <v>-0.1300615149832311</v>
       </c>
       <c r="C82">
-        <v>0.07989010096848785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04836224953650824</v>
+      </c>
+      <c r="D82">
+        <v>0.03045344404149935</v>
+      </c>
+      <c r="E82">
+        <v>-0.0116649050146074</v>
+      </c>
+      <c r="F82">
+        <v>-0.05484442196727998</v>
+      </c>
+      <c r="G82">
+        <v>0.02604166618132594</v>
+      </c>
+      <c r="H82">
+        <v>0.1875048499518508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07824700391519514</v>
+        <v>-0.08686824879114012</v>
       </c>
       <c r="C83">
-        <v>-0.001865618595471588</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01933492915068222</v>
+      </c>
+      <c r="D83">
+        <v>0.04413492222175362</v>
+      </c>
+      <c r="E83">
+        <v>0.02515664330998521</v>
+      </c>
+      <c r="F83">
+        <v>-0.06224556475398534</v>
+      </c>
+      <c r="G83">
+        <v>0.09989413878410353</v>
+      </c>
+      <c r="H83">
+        <v>-0.05787713734442978</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02925815143130719</v>
+        <v>-0.03953885068139976</v>
       </c>
       <c r="C84">
-        <v>0.02549593713721995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0199919981675961</v>
+      </c>
+      <c r="D84">
+        <v>0.03090479531203772</v>
+      </c>
+      <c r="E84">
+        <v>0.02668915230914422</v>
+      </c>
+      <c r="F84">
+        <v>0.05096577848089767</v>
+      </c>
+      <c r="G84">
+        <v>0.05282217936810926</v>
+      </c>
+      <c r="H84">
+        <v>0.02937892440515127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1182845800424698</v>
+        <v>-0.119251800395007</v>
       </c>
       <c r="C85">
-        <v>0.06188589653381488</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03040599340186588</v>
+      </c>
+      <c r="D85">
+        <v>0.02835881193304874</v>
+      </c>
+      <c r="E85">
+        <v>0.0192335812684207</v>
+      </c>
+      <c r="F85">
+        <v>-0.03971442281104563</v>
+      </c>
+      <c r="G85">
+        <v>0.005176568153871318</v>
+      </c>
+      <c r="H85">
+        <v>0.1441485217881378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05067237578749771</v>
+        <v>-0.05699763959065345</v>
       </c>
       <c r="C86">
-        <v>0.03098122848126407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01924128518644932</v>
+      </c>
+      <c r="D86">
+        <v>0.02339230626017117</v>
+      </c>
+      <c r="E86">
+        <v>0.05989621361190586</v>
+      </c>
+      <c r="F86">
+        <v>-0.02251375253179387</v>
+      </c>
+      <c r="G86">
+        <v>0.006296257902118119</v>
+      </c>
+      <c r="H86">
+        <v>0.01199977009042308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1205200143388812</v>
+        <v>-0.1217029785946012</v>
       </c>
       <c r="C87">
-        <v>0.07017060304185295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03304688177769057</v>
+      </c>
+      <c r="D87">
+        <v>0.0765854868657047</v>
+      </c>
+      <c r="E87">
+        <v>0.02043226791180163</v>
+      </c>
+      <c r="F87">
+        <v>-0.0008134267708777179</v>
+      </c>
+      <c r="G87">
+        <v>-0.1048054268225547</v>
+      </c>
+      <c r="H87">
+        <v>-0.02831720953515424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05345857860862097</v>
+        <v>-0.0602232210485684</v>
       </c>
       <c r="C88">
-        <v>0.03173867366140885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01999988146755895</v>
+      </c>
+      <c r="D88">
+        <v>0.02737266299026917</v>
+      </c>
+      <c r="E88">
+        <v>0.02176131441820147</v>
+      </c>
+      <c r="F88">
+        <v>-0.004151426427457918</v>
+      </c>
+      <c r="G88">
+        <v>-0.01550379141022936</v>
+      </c>
+      <c r="H88">
+        <v>0.05865128744990267</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08319304618355049</v>
+        <v>-0.09632044724763865</v>
       </c>
       <c r="C89">
-        <v>0.06694397393006724</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07780122736796295</v>
+      </c>
+      <c r="D89">
+        <v>-0.3375059064142573</v>
+      </c>
+      <c r="E89">
+        <v>0.07222075018910036</v>
+      </c>
+      <c r="F89">
+        <v>-0.08011102189234262</v>
+      </c>
+      <c r="G89">
+        <v>0.02103751410772235</v>
+      </c>
+      <c r="H89">
+        <v>0.01366635807665353</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07272628780493562</v>
+        <v>-0.08214485521482214</v>
       </c>
       <c r="C90">
-        <v>0.05916477081015969</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06767923630414877</v>
+      </c>
+      <c r="D90">
+        <v>-0.3078834408173693</v>
+      </c>
+      <c r="E90">
+        <v>0.0693159108440576</v>
+      </c>
+      <c r="F90">
+        <v>-0.007712716016314269</v>
+      </c>
+      <c r="G90">
+        <v>0.005576499499481751</v>
+      </c>
+      <c r="H90">
+        <v>0.0107574108078121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08404889037849518</v>
+        <v>-0.08934097632722697</v>
       </c>
       <c r="C91">
-        <v>0.05502689939543488</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03309014114168171</v>
+      </c>
+      <c r="D91">
+        <v>0.03183098682746074</v>
+      </c>
+      <c r="E91">
+        <v>0.0119102073438202</v>
+      </c>
+      <c r="F91">
+        <v>-0.002694237276098643</v>
+      </c>
+      <c r="G91">
+        <v>0.04437017106617504</v>
+      </c>
+      <c r="H91">
+        <v>0.07493764106309789</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07890811138030739</v>
+        <v>-0.08540806768812766</v>
       </c>
       <c r="C92">
-        <v>0.07672277761746511</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08361500017960496</v>
+      </c>
+      <c r="D92">
+        <v>-0.343196381411411</v>
+      </c>
+      <c r="E92">
+        <v>0.04900110341179437</v>
+      </c>
+      <c r="F92">
+        <v>-0.0349750270783685</v>
+      </c>
+      <c r="G92">
+        <v>-0.004482905015492834</v>
+      </c>
+      <c r="H92">
+        <v>0.02262036233449686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0653771846282804</v>
+        <v>-0.07980904487693971</v>
       </c>
       <c r="C93">
-        <v>0.06399061380114113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07753448598443034</v>
+      </c>
+      <c r="D93">
+        <v>-0.3060940017830872</v>
+      </c>
+      <c r="E93">
+        <v>0.04138109825093465</v>
+      </c>
+      <c r="F93">
+        <v>-0.04861891966205011</v>
+      </c>
+      <c r="G93">
+        <v>-0.005632258263203236</v>
+      </c>
+      <c r="H93">
+        <v>-0.01118561221847643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1335610997088078</v>
+        <v>-0.1284769494140616</v>
       </c>
       <c r="C94">
-        <v>0.05958145166452236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02107402511486412</v>
+      </c>
+      <c r="D94">
+        <v>0.04867467721742762</v>
+      </c>
+      <c r="E94">
+        <v>-0.003918223000120949</v>
+      </c>
+      <c r="F94">
+        <v>-0.02144775653065182</v>
+      </c>
+      <c r="G94">
+        <v>0.03548263600667614</v>
+      </c>
+      <c r="H94">
+        <v>0.1096458227925478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1183531019131231</v>
+        <v>-0.1277951054299599</v>
       </c>
       <c r="C95">
-        <v>0.03924458218430517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.009852444457320673</v>
+      </c>
+      <c r="D95">
+        <v>0.05686656379760877</v>
+      </c>
+      <c r="E95">
+        <v>0.004835358560153629</v>
+      </c>
+      <c r="F95">
+        <v>-0.04020455248349111</v>
+      </c>
+      <c r="G95">
+        <v>0.02104145279441856</v>
+      </c>
+      <c r="H95">
+        <v>-0.02292475352793436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2035121809798713</v>
+        <v>-0.2131556846139522</v>
       </c>
       <c r="C97">
-        <v>0.05021195924227275</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01123005117091557</v>
+      </c>
+      <c r="D97">
+        <v>-0.09047174420105965</v>
+      </c>
+      <c r="E97">
+        <v>-0.2847981569376408</v>
+      </c>
+      <c r="F97">
+        <v>0.8731186353651642</v>
+      </c>
+      <c r="G97">
+        <v>-0.1070133167746083</v>
+      </c>
+      <c r="H97">
+        <v>-0.02348645028411089</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2443852032667035</v>
+        <v>-0.2722753189410934</v>
       </c>
       <c r="C98">
-        <v>0.08571067474582611</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03648976669423876</v>
+      </c>
+      <c r="D98">
+        <v>0.06580781487317093</v>
+      </c>
+      <c r="E98">
+        <v>-0.1542398959602986</v>
+      </c>
+      <c r="F98">
+        <v>-0.07095746352257172</v>
+      </c>
+      <c r="G98">
+        <v>0.28687775995812</v>
+      </c>
+      <c r="H98">
+        <v>-0.1943125774019702</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4645959279125269</v>
+        <v>-0.2842419083738661</v>
       </c>
       <c r="C99">
-        <v>-0.8708752983777435</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9367982733333147</v>
+      </c>
+      <c r="D99">
+        <v>-0.1269296794630327</v>
+      </c>
+      <c r="E99">
+        <v>0.06427723594914639</v>
+      </c>
+      <c r="F99">
+        <v>-0.0381973261416864</v>
+      </c>
+      <c r="G99">
+        <v>0.01242903873054519</v>
+      </c>
+      <c r="H99">
+        <v>0.06092335056664848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04127142180643801</v>
+        <v>-0.04799216106034616</v>
       </c>
       <c r="C101">
-        <v>0.03176307182023114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02474480577302099</v>
+      </c>
+      <c r="D101">
+        <v>0.00483634072453708</v>
+      </c>
+      <c r="E101">
+        <v>0.05283566320314029</v>
+      </c>
+      <c r="F101">
+        <v>-4.296117310738992e-06</v>
+      </c>
+      <c r="G101">
+        <v>-0.001892422387738929</v>
+      </c>
+      <c r="H101">
+        <v>0.0796075013996586</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
